--- a/Testes_Modelo_Recomendacao.xlsx
+++ b/Testes_Modelo_Recomendacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADM\Desktop\modelo_embeddings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217EFC35-8350-4E57-BD15-55FB7DF1EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B68570-1961-403C-B72E-E690E85EB542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>Otimizador</t>
   </si>
@@ -49,217 +49,211 @@
     <t>Adam</t>
   </si>
   <si>
-    <t>147.69 segundos</t>
-  </si>
-  <si>
-    <t>0.0073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0723 </t>
-  </si>
-  <si>
-    <t>0.1633</t>
-  </si>
-  <si>
-    <t>235.65 segundos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0056 </t>
-  </si>
-  <si>
-    <t>0.0725</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1734</t>
-  </si>
-  <si>
-    <t>458.92 segundos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0051</t>
-  </si>
-  <si>
-    <t>0.0740</t>
-  </si>
-  <si>
-    <t>0.1850</t>
-  </si>
-  <si>
-    <t>0.0044</t>
-  </si>
-  <si>
-    <t>173.92 segundos</t>
-  </si>
-  <si>
-    <t>0.0564</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1499</t>
-  </si>
-  <si>
-    <t>300.52 segundos</t>
-  </si>
-  <si>
-    <t>0.0018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0583 </t>
-  </si>
-  <si>
-    <t>0.1493</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 445.15 segundos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0011 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0467 </t>
-  </si>
-  <si>
-    <t>0.1462</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0013 </t>
-  </si>
-  <si>
-    <t>0.0420</t>
-  </si>
-  <si>
-    <t>0.1210</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 128.22 segundos</t>
-  </si>
-  <si>
-    <t>225.91 segundos</t>
-  </si>
-  <si>
-    <t>0.0385</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1213</t>
-  </si>
-  <si>
-    <t>425.38 segundos</t>
-  </si>
-  <si>
-    <t>0.0264</t>
-  </si>
-  <si>
-    <t>0.1012</t>
-  </si>
-  <si>
-    <t>0.0054</t>
-  </si>
-  <si>
-    <t>0.0258</t>
-  </si>
-  <si>
-    <t>0.0574</t>
-  </si>
-  <si>
-    <t>154.30 segundos</t>
-  </si>
-  <si>
-    <t>212.72 segundos</t>
-  </si>
-  <si>
-    <t>0.0083</t>
-  </si>
-  <si>
-    <t>0.0391</t>
-  </si>
-  <si>
-    <t>0.0761</t>
-  </si>
-  <si>
-    <t>441.40 segundos</t>
-  </si>
-  <si>
-    <t>0.0254</t>
-  </si>
-  <si>
-    <t>0.1279</t>
-  </si>
-  <si>
-    <t>0.2200</t>
-  </si>
-  <si>
-    <t>123.93 segundos</t>
-  </si>
-  <si>
-    <t>0.0057</t>
-  </si>
-  <si>
-    <t>0.0531</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 199.21 segundos</t>
-  </si>
-  <si>
-    <t>0.0076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0451 </t>
-  </si>
-  <si>
-    <t>0.0856</t>
-  </si>
-  <si>
-    <t>390.19 segundos</t>
-  </si>
-  <si>
-    <t>0.0243</t>
-  </si>
-  <si>
-    <t>0.1304</t>
-  </si>
-  <si>
-    <t>0.2356</t>
-  </si>
-  <si>
-    <t>127.63 segundos</t>
-  </si>
-  <si>
-    <t>0.0049</t>
-  </si>
-  <si>
-    <t>0.0250</t>
-  </si>
-  <si>
-    <t>0.0549</t>
-  </si>
-  <si>
-    <t>205.66 segundos</t>
-  </si>
-  <si>
-    <t>0.0048</t>
-  </si>
-  <si>
-    <t>0.0360</t>
-  </si>
-  <si>
-    <t>0.0792</t>
-  </si>
-  <si>
-    <t>402.96 segundos</t>
-  </si>
-  <si>
-    <t>0.0176</t>
-  </si>
-  <si>
-    <t>0.1246</t>
-  </si>
-  <si>
-    <t>0.2353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0.0090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0.0050</t>
+    <t>0.4657</t>
+  </si>
+  <si>
+    <t>0.5519</t>
+  </si>
+  <si>
+    <t>0.6148</t>
+  </si>
+  <si>
+    <t>0.5115</t>
+  </si>
+  <si>
+    <t>0.6119</t>
+  </si>
+  <si>
+    <t>0.6979</t>
+  </si>
+  <si>
+    <t>0.4914</t>
+  </si>
+  <si>
+    <t>0.5853</t>
+  </si>
+  <si>
+    <t>0.6807</t>
+  </si>
+  <si>
+    <t>0.3409</t>
+  </si>
+  <si>
+    <t>0.3925</t>
+  </si>
+  <si>
+    <t>0.4136</t>
+  </si>
+  <si>
+    <t>0.5250</t>
+  </si>
+  <si>
+    <t>0.5167</t>
+  </si>
+  <si>
+    <t>0.5146</t>
+  </si>
+  <si>
+    <t>0.6721</t>
+  </si>
+  <si>
+    <t>0.6414</t>
+  </si>
+  <si>
+    <t>0.6459</t>
+  </si>
+  <si>
+    <t>0.5775</t>
+  </si>
+  <si>
+    <t>0.6709</t>
+  </si>
+  <si>
+    <t>0.7310</t>
+  </si>
+  <si>
+    <t>0.6066</t>
+  </si>
+  <si>
+    <t>0.7201</t>
+  </si>
+  <si>
+    <t>0.7844</t>
+  </si>
+  <si>
+    <t>0.5655</t>
+  </si>
+  <si>
+    <t>0.6784</t>
+  </si>
+  <si>
+    <t>0.7725</t>
+  </si>
+  <si>
+    <t>0.5166</t>
+  </si>
+  <si>
+    <t>0.5600</t>
+  </si>
+  <si>
+    <t>0.5472</t>
+  </si>
+  <si>
+    <t>0.6741</t>
+  </si>
+  <si>
+    <t>0.6902</t>
+  </si>
+  <si>
+    <t>0.6463</t>
+  </si>
+  <si>
+    <t>0.7695</t>
+  </si>
+  <si>
+    <t>0.7777</t>
+  </si>
+  <si>
+    <t>0.7707</t>
+  </si>
+  <si>
+    <t>0.6262</t>
+  </si>
+  <si>
+    <t>0.7115</t>
+  </si>
+  <si>
+    <t>0.7589</t>
+  </si>
+  <si>
+    <t>0.6477</t>
+  </si>
+  <si>
+    <t>0.7518</t>
+  </si>
+  <si>
+    <t>0.7923</t>
+  </si>
+  <si>
+    <t>0.5961</t>
+  </si>
+  <si>
+    <t>0.7106</t>
+  </si>
+  <si>
+    <t>0.7842</t>
+  </si>
+  <si>
+    <t>0.5879</t>
+  </si>
+  <si>
+    <t>0.6177</t>
+  </si>
+  <si>
+    <t>0.7166</t>
+  </si>
+  <si>
+    <t>0.7549</t>
+  </si>
+  <si>
+    <t>0.7279</t>
+  </si>
+  <si>
+    <t>0.7868</t>
+  </si>
+  <si>
+    <t>0.8013</t>
+  </si>
+  <si>
+    <t>0.8014</t>
+  </si>
+  <si>
+    <t>1894 Segundos</t>
+  </si>
+  <si>
+    <t>2604 Segundos</t>
+  </si>
+  <si>
+    <t>3899 Segundos</t>
+  </si>
+  <si>
+    <t>1440 Segundos</t>
+  </si>
+  <si>
+    <t>2400 Segundos</t>
+  </si>
+  <si>
+    <t>5220 Segundos</t>
+  </si>
+  <si>
+    <t>1140 Segundos</t>
+  </si>
+  <si>
+    <t>1980 Segundos</t>
+  </si>
+  <si>
+    <t>6540 Segundos</t>
+  </si>
+  <si>
+    <t>1320 Segundos</t>
+  </si>
+  <si>
+    <t>2280 Segundos</t>
+  </si>
+  <si>
+    <t>5100 Segundos</t>
+  </si>
+  <si>
+    <t>1500 Segundos</t>
+  </si>
+  <si>
+    <t>2340 Segundos</t>
+  </si>
+  <si>
+    <t>4920 Segundos</t>
+  </si>
+  <si>
+    <t>4020 Segundos</t>
   </si>
 </sst>
 </file>
@@ -318,15 +312,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -674,7 +665,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +673,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
@@ -722,16 +713,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -745,16 +736,16 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -768,16 +759,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -791,16 +782,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -814,16 +805,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -837,16 +828,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -860,18 +851,18 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -884,16 +875,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -907,16 +898,16 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -929,17 +920,17 @@
       <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -953,16 +944,16 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -976,17 +967,18 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -999,17 +991,18 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1022,16 +1015,16 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1045,16 +1038,16 @@
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1068,16 +1061,16 @@
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1091,16 +1084,16 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1114,16 +1107,16 @@
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
